--- a/Data/EC/NIT-8600261825.xlsx
+++ b/Data/EC/NIT-8600261825.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7538306-6E42-46B0-8A49-D9F6FFD54EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{705133CA-3E3D-49E4-AED5-14B1C80413C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8F1B2C17-C3E8-484E-A52D-F98B885FB115}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B61261E5-238A-4E09-90A2-ECB6110469A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="135">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,346 +65,349 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1050950230</t>
+  </si>
+  <si>
+    <t>JENNIFFER ISABEL JIMENEZ HERRERA</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
     <t>1143339383</t>
   </si>
   <si>
     <t>AURA MARIA DEL CASTILLO JIMENEZ</t>
   </si>
   <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>1050950230</t>
-  </si>
-  <si>
-    <t>JENNIFFER ISABEL JIMENEZ HERRERA</t>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
   </si>
   <si>
     <t>73582005</t>
   </si>
   <si>
     <t>RAFAEL ENRIQUE CEBALLOS LEGUIZAMO</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -818,7 +821,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4DB02C5-A9E8-E7E8-7D36-2C021734C3A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E4D9394-76A6-6CFE-14C0-583F17375464}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1169,8 +1172,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6FF6FF-BCEE-4138-9473-49F55F1A9D57}">
-  <dimension ref="B2:J323"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD03EAE-F6E0-45F0-8AE9-377733A9FFDB}">
+  <dimension ref="B2:J325"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1194,7 +1197,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1239,7 +1242,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1271,12 +1274,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>52023152</v>
+        <v>52448576</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1287,17 +1290,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C13" s="5">
         <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F13" s="5">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1324,13 +1327,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>128</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1347,10 +1350,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>57544</v>
+        <v>296000</v>
       </c>
       <c r="G16" s="18">
-        <v>1438600</v>
+        <v>7400000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1361,19 +1364,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
         <v>68016</v>
       </c>
       <c r="G17" s="18">
-        <v>8140000</v>
+        <v>7400000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1384,19 +1387,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>367880</v>
+        <v>68016</v>
       </c>
       <c r="G18" s="18">
-        <v>9197000</v>
+        <v>7400000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1407,19 +1410,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>68016</v>
       </c>
       <c r="G19" s="18">
-        <v>8140000</v>
+        <v>7400000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1430,19 +1433,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F20" s="18">
-        <v>367880</v>
+        <v>68016</v>
       </c>
       <c r="G20" s="18">
-        <v>9197000</v>
+        <v>7400000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1462,10 +1465,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>57544</v>
+        <v>68016</v>
       </c>
       <c r="G21" s="18">
-        <v>1438600</v>
+        <v>7400000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1476,10 +1479,10 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>17</v>
@@ -1488,7 +1491,7 @@
         <v>68016</v>
       </c>
       <c r="G22" s="18">
-        <v>8140000</v>
+        <v>7400000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1499,19 +1502,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>367880</v>
+        <v>68016</v>
       </c>
       <c r="G23" s="18">
-        <v>9197000</v>
+        <v>7400000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1528,13 +1531,13 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>57544</v>
+        <v>68016</v>
       </c>
       <c r="G24" s="18">
-        <v>1438600</v>
+        <v>7400000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1551,13 +1554,13 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>57544</v>
+        <v>68016</v>
       </c>
       <c r="G25" s="18">
-        <v>1438600</v>
+        <v>7400000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1568,19 +1571,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>367880</v>
+        <v>68016</v>
       </c>
       <c r="G26" s="18">
-        <v>9197000</v>
+        <v>7400000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1591,19 +1594,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>68016</v>
       </c>
       <c r="G27" s="18">
-        <v>8140000</v>
+        <v>7400000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1614,19 +1617,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>68016</v>
       </c>
       <c r="G28" s="18">
-        <v>8140000</v>
+        <v>7400000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1637,19 +1640,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>367880</v>
+        <v>68016</v>
       </c>
       <c r="G29" s="18">
-        <v>9197000</v>
+        <v>7400000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1666,13 +1669,13 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>57544</v>
+        <v>68016</v>
       </c>
       <c r="G30" s="18">
-        <v>1438600</v>
+        <v>7400000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1689,13 +1692,13 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>57544</v>
+        <v>68016</v>
       </c>
       <c r="G31" s="18">
-        <v>1438600</v>
+        <v>7400000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1706,19 +1709,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>68016</v>
       </c>
       <c r="G32" s="18">
-        <v>8140000</v>
+        <v>7400000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1729,19 +1732,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>367880</v>
+        <v>68016</v>
       </c>
       <c r="G33" s="18">
-        <v>9197000</v>
+        <v>7400000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1752,19 +1755,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>367880</v>
+        <v>68016</v>
       </c>
       <c r="G34" s="18">
-        <v>9197000</v>
+        <v>7400000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1781,13 +1784,13 @@
         <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>57544</v>
+        <v>68016</v>
       </c>
       <c r="G35" s="18">
-        <v>1438600</v>
+        <v>7400000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1798,19 +1801,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>68016</v>
       </c>
       <c r="G36" s="18">
-        <v>8140000</v>
+        <v>7400000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1821,19 +1824,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
         <v>68016</v>
       </c>
       <c r="G37" s="18">
-        <v>8140000</v>
+        <v>7400000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1850,13 +1853,13 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>57544</v>
+        <v>68016</v>
       </c>
       <c r="G38" s="18">
-        <v>1438600</v>
+        <v>7400000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1867,19 +1870,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>367880</v>
+        <v>68016</v>
       </c>
       <c r="G39" s="18">
-        <v>9197000</v>
+        <v>7400000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1890,19 +1893,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
         <v>68016</v>
       </c>
       <c r="G40" s="18">
-        <v>8140000</v>
+        <v>7400000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1919,13 +1922,13 @@
         <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>57544</v>
+        <v>68016</v>
       </c>
       <c r="G41" s="18">
-        <v>1438600</v>
+        <v>7400000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1936,19 +1939,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>367880</v>
+        <v>68016</v>
       </c>
       <c r="G42" s="18">
-        <v>9197000</v>
+        <v>7400000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1959,19 +1962,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
         <v>68016</v>
       </c>
       <c r="G43" s="18">
-        <v>8140000</v>
+        <v>7400000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1988,13 +1991,13 @@
         <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>57544</v>
+        <v>68016</v>
       </c>
       <c r="G44" s="18">
-        <v>1438600</v>
+        <v>7400000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -2005,19 +2008,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>367880</v>
+        <v>68016</v>
       </c>
       <c r="G45" s="18">
-        <v>9197000</v>
+        <v>7400000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2028,19 +2031,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
         <v>68016</v>
       </c>
       <c r="G46" s="18">
-        <v>8140000</v>
+        <v>7400000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2051,19 +2054,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
-        <v>367880</v>
+        <v>68016</v>
       </c>
       <c r="G47" s="18">
-        <v>9197000</v>
+        <v>7400000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2080,13 +2083,13 @@
         <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>57544</v>
+        <v>68016</v>
       </c>
       <c r="G48" s="18">
-        <v>1438600</v>
+        <v>7400000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2103,13 +2106,13 @@
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
-        <v>57544</v>
+        <v>68016</v>
       </c>
       <c r="G49" s="18">
-        <v>1438600</v>
+        <v>7400000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2120,19 +2123,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
         <v>68016</v>
       </c>
       <c r="G50" s="18">
-        <v>8140000</v>
+        <v>7400000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2143,19 +2146,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
-        <v>367880</v>
+        <v>68016</v>
       </c>
       <c r="G51" s="18">
-        <v>9197000</v>
+        <v>7400000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2166,19 +2169,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
-        <v>367880</v>
+        <v>68016</v>
       </c>
       <c r="G52" s="18">
-        <v>9197000</v>
+        <v>7400000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2195,13 +2198,13 @@
         <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
-        <v>57544</v>
+        <v>68016</v>
       </c>
       <c r="G53" s="18">
-        <v>1438600</v>
+        <v>7400000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2212,19 +2215,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F54" s="18">
         <v>68016</v>
       </c>
       <c r="G54" s="18">
-        <v>8140000</v>
+        <v>7400000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2235,19 +2238,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F55" s="18">
-        <v>367880</v>
+        <v>68016</v>
       </c>
       <c r="G55" s="18">
-        <v>9197000</v>
+        <v>7400000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2258,19 +2261,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="F56" s="18">
         <v>68016</v>
       </c>
       <c r="G56" s="18">
-        <v>8140000</v>
+        <v>7400000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2287,13 +2290,13 @@
         <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F57" s="18">
-        <v>57544</v>
+        <v>68016</v>
       </c>
       <c r="G57" s="18">
-        <v>1438600</v>
+        <v>7400000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2310,13 +2313,13 @@
         <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="F58" s="18">
-        <v>57544</v>
+        <v>68016</v>
       </c>
       <c r="G58" s="18">
-        <v>1438600</v>
+        <v>7400000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2327,19 +2330,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="F59" s="18">
-        <v>367880</v>
+        <v>68016</v>
       </c>
       <c r="G59" s="18">
-        <v>9197000</v>
+        <v>7400000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2350,19 +2353,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F60" s="18">
         <v>68016</v>
       </c>
       <c r="G60" s="18">
-        <v>8140000</v>
+        <v>7400000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2373,19 +2376,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="F61" s="18">
-        <v>367880</v>
+        <v>68016</v>
       </c>
       <c r="G61" s="18">
-        <v>9197000</v>
+        <v>7400000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2396,19 +2399,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="F62" s="18">
         <v>68016</v>
       </c>
       <c r="G62" s="18">
-        <v>8140000</v>
+        <v>7400000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2425,13 +2428,13 @@
         <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F63" s="18">
-        <v>57544</v>
+        <v>68016</v>
       </c>
       <c r="G63" s="18">
-        <v>1438600</v>
+        <v>7400000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2442,19 +2445,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="F64" s="18">
-        <v>367880</v>
+        <v>68016</v>
       </c>
       <c r="G64" s="18">
-        <v>9197000</v>
+        <v>7400000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2471,13 +2474,13 @@
         <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="F65" s="18">
-        <v>57544</v>
+        <v>68016</v>
       </c>
       <c r="G65" s="18">
-        <v>1438600</v>
+        <v>7400000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2488,19 +2491,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="F66" s="18">
         <v>68016</v>
       </c>
       <c r="G66" s="18">
-        <v>8140000</v>
+        <v>7400000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2511,19 +2514,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="F67" s="18">
         <v>68016</v>
       </c>
       <c r="G67" s="18">
-        <v>8140000</v>
+        <v>7400000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2540,13 +2543,13 @@
         <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="F68" s="18">
-        <v>57544</v>
+        <v>68016</v>
       </c>
       <c r="G68" s="18">
-        <v>1438600</v>
+        <v>7400000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2557,19 +2560,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F69" s="18">
-        <v>367880</v>
+        <v>68016</v>
       </c>
       <c r="G69" s="18">
-        <v>9197000</v>
+        <v>7400000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2586,13 +2589,13 @@
         <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="F70" s="18">
-        <v>57544</v>
+        <v>68016</v>
       </c>
       <c r="G70" s="18">
-        <v>1438600</v>
+        <v>7400000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2603,19 +2606,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="F71" s="18">
         <v>68016</v>
       </c>
       <c r="G71" s="18">
-        <v>8140000</v>
+        <v>7400000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2626,19 +2629,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="F72" s="18">
-        <v>367880</v>
+        <v>68016</v>
       </c>
       <c r="G72" s="18">
-        <v>9197000</v>
+        <v>7400000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2655,13 +2658,13 @@
         <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="F73" s="18">
-        <v>57544</v>
+        <v>68016</v>
       </c>
       <c r="G73" s="18">
-        <v>1438600</v>
+        <v>7400000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2672,19 +2675,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="F74" s="18">
         <v>68016</v>
       </c>
       <c r="G74" s="18">
-        <v>8140000</v>
+        <v>7400000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2695,19 +2698,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="F75" s="18">
-        <v>367880</v>
+        <v>68016</v>
       </c>
       <c r="G75" s="18">
-        <v>9197000</v>
+        <v>7400000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2718,19 +2721,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="F76" s="18">
-        <v>367880</v>
+        <v>68016</v>
       </c>
       <c r="G76" s="18">
-        <v>9197000</v>
+        <v>7400000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2741,19 +2744,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="F77" s="18">
         <v>68016</v>
       </c>
       <c r="G77" s="18">
-        <v>8140000</v>
+        <v>7400000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2770,13 +2773,13 @@
         <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="F78" s="18">
-        <v>57544</v>
+        <v>68016</v>
       </c>
       <c r="G78" s="18">
-        <v>1438600</v>
+        <v>7400000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2787,19 +2790,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="F79" s="18">
         <v>68016</v>
       </c>
       <c r="G79" s="18">
-        <v>8140000</v>
+        <v>7400000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2810,19 +2813,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="F80" s="18">
-        <v>367880</v>
+        <v>68016</v>
       </c>
       <c r="G80" s="18">
-        <v>9197000</v>
+        <v>7400000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2839,13 +2842,13 @@
         <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="F81" s="18">
-        <v>57544</v>
+        <v>68016</v>
       </c>
       <c r="G81" s="18">
-        <v>1438600</v>
+        <v>7400000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2856,19 +2859,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="F82" s="18">
-        <v>367880</v>
+        <v>68016</v>
       </c>
       <c r="G82" s="18">
-        <v>9197000</v>
+        <v>7400000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2885,13 +2888,13 @@
         <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="F83" s="18">
-        <v>57544</v>
+        <v>68016</v>
       </c>
       <c r="G83" s="18">
-        <v>1438600</v>
+        <v>7400000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2902,19 +2905,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="F84" s="18">
         <v>68016</v>
       </c>
       <c r="G84" s="18">
-        <v>8140000</v>
+        <v>7400000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2925,19 +2928,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="F85" s="18">
-        <v>367880</v>
+        <v>68016</v>
       </c>
       <c r="G85" s="18">
-        <v>9197000</v>
+        <v>7400000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2954,13 +2957,13 @@
         <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="F86" s="18">
-        <v>57544</v>
+        <v>68016</v>
       </c>
       <c r="G86" s="18">
-        <v>1438600</v>
+        <v>7400000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2971,19 +2974,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="F87" s="18">
         <v>68016</v>
       </c>
       <c r="G87" s="18">
-        <v>8140000</v>
+        <v>7400000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2994,19 +2997,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="F88" s="18">
-        <v>367880</v>
+        <v>68016</v>
       </c>
       <c r="G88" s="18">
-        <v>9197000</v>
+        <v>7400000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -3023,13 +3026,13 @@
         <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="F89" s="18">
-        <v>57544</v>
+        <v>68016</v>
       </c>
       <c r="G89" s="18">
-        <v>1438600</v>
+        <v>7400000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -3040,19 +3043,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="F90" s="18">
         <v>68016</v>
       </c>
       <c r="G90" s="18">
-        <v>8140000</v>
+        <v>7400000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3063,19 +3066,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="F91" s="18">
-        <v>367880</v>
+        <v>68016</v>
       </c>
       <c r="G91" s="18">
-        <v>9197000</v>
+        <v>7400000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3086,19 +3089,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="F92" s="18">
         <v>68016</v>
       </c>
       <c r="G92" s="18">
-        <v>8140000</v>
+        <v>7400000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3115,13 +3118,13 @@
         <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="F93" s="18">
-        <v>57544</v>
+        <v>68016</v>
       </c>
       <c r="G93" s="18">
-        <v>1438600</v>
+        <v>7400000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3132,19 +3135,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="F94" s="18">
         <v>68016</v>
       </c>
       <c r="G94" s="18">
-        <v>8140000</v>
+        <v>7400000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3161,13 +3164,13 @@
         <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="F95" s="18">
-        <v>57544</v>
+        <v>68016</v>
       </c>
       <c r="G95" s="18">
-        <v>1438600</v>
+        <v>7400000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3178,19 +3181,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="F96" s="18">
-        <v>367880</v>
+        <v>68016</v>
       </c>
       <c r="G96" s="18">
-        <v>9197000</v>
+        <v>7400000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3207,13 +3210,13 @@
         <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="F97" s="18">
-        <v>57544</v>
+        <v>68016</v>
       </c>
       <c r="G97" s="18">
-        <v>1438600</v>
+        <v>7400000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3224,19 +3227,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="F98" s="18">
         <v>68016</v>
       </c>
       <c r="G98" s="18">
-        <v>8140000</v>
+        <v>7400000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3247,19 +3250,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="F99" s="18">
-        <v>367880</v>
+        <v>68016</v>
       </c>
       <c r="G99" s="18">
-        <v>9197000</v>
+        <v>7400000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3270,19 +3273,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="F100" s="18">
         <v>68016</v>
       </c>
       <c r="G100" s="18">
-        <v>8140000</v>
+        <v>7400000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3299,13 +3302,13 @@
         <v>10</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="F101" s="18">
-        <v>57544</v>
+        <v>68016</v>
       </c>
       <c r="G101" s="18">
-        <v>1438600</v>
+        <v>7400000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3316,19 +3319,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="F102" s="18">
-        <v>367880</v>
+        <v>57544</v>
       </c>
       <c r="G102" s="18">
-        <v>9197000</v>
+        <v>1438600</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3339,19 +3342,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="F103" s="18">
-        <v>68016</v>
+        <v>57544</v>
       </c>
       <c r="G103" s="18">
-        <v>8140000</v>
+        <v>1438600</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3362,13 +3365,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="F104" s="18">
         <v>57544</v>
@@ -3385,19 +3388,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="F105" s="18">
-        <v>367880</v>
+        <v>57544</v>
       </c>
       <c r="G105" s="18">
-        <v>9197000</v>
+        <v>1438600</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3408,13 +3411,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="F106" s="18">
         <v>57544</v>
@@ -3431,19 +3434,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="F107" s="18">
-        <v>367880</v>
+        <v>57544</v>
       </c>
       <c r="G107" s="18">
-        <v>9197000</v>
+        <v>1438600</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3454,19 +3457,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="F108" s="18">
-        <v>68016</v>
+        <v>57544</v>
       </c>
       <c r="G108" s="18">
-        <v>8140000</v>
+        <v>1438600</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3477,13 +3480,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="F109" s="18">
         <v>57544</v>
@@ -3500,19 +3503,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="F110" s="18">
-        <v>68016</v>
+        <v>57544</v>
       </c>
       <c r="G110" s="18">
-        <v>8140000</v>
+        <v>1438600</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3523,19 +3526,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="F111" s="18">
-        <v>367880</v>
+        <v>57544</v>
       </c>
       <c r="G111" s="18">
-        <v>9197000</v>
+        <v>1438600</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3546,19 +3549,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="F112" s="18">
-        <v>367880</v>
+        <v>57544</v>
       </c>
       <c r="G112" s="18">
-        <v>9197000</v>
+        <v>1438600</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3569,19 +3572,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="F113" s="18">
-        <v>68016</v>
+        <v>57544</v>
       </c>
       <c r="G113" s="18">
-        <v>8140000</v>
+        <v>1438600</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3592,13 +3595,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="F114" s="18">
         <v>57544</v>
@@ -3615,19 +3618,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="F115" s="18">
-        <v>367880</v>
+        <v>57544</v>
       </c>
       <c r="G115" s="18">
-        <v>9197000</v>
+        <v>1438600</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3638,13 +3641,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="F116" s="18">
         <v>57544</v>
@@ -3661,19 +3664,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="F117" s="18">
-        <v>68016</v>
+        <v>57544</v>
       </c>
       <c r="G117" s="18">
-        <v>8140000</v>
+        <v>1438600</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3684,19 +3687,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="F118" s="18">
-        <v>68016</v>
+        <v>57544</v>
       </c>
       <c r="G118" s="18">
-        <v>8140000</v>
+        <v>1438600</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3707,13 +3710,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="F119" s="18">
         <v>57544</v>
@@ -3730,19 +3733,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F120" s="18">
-        <v>367880</v>
+        <v>57544</v>
       </c>
       <c r="G120" s="18">
-        <v>9197000</v>
+        <v>1438600</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3753,19 +3756,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="F121" s="18">
-        <v>367880</v>
+        <v>57544</v>
       </c>
       <c r="G121" s="18">
-        <v>9197000</v>
+        <v>1438600</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3776,13 +3779,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="F122" s="18">
         <v>57544</v>
@@ -3799,19 +3802,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="F123" s="18">
-        <v>68016</v>
+        <v>57544</v>
       </c>
       <c r="G123" s="18">
-        <v>8140000</v>
+        <v>1438600</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3822,19 +3825,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="F124" s="18">
-        <v>367880</v>
+        <v>57544</v>
       </c>
       <c r="G124" s="18">
-        <v>9197000</v>
+        <v>1438600</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3845,13 +3848,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="F125" s="18">
         <v>57544</v>
@@ -3868,19 +3871,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D126" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E126" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D126" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E126" s="16" t="s">
-        <v>51</v>
-      </c>
       <c r="F126" s="18">
-        <v>68016</v>
+        <v>57544</v>
       </c>
       <c r="G126" s="18">
-        <v>8140000</v>
+        <v>1438600</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3891,19 +3894,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="F127" s="18">
-        <v>367880</v>
+        <v>57544</v>
       </c>
       <c r="G127" s="18">
-        <v>9197000</v>
+        <v>1438600</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3914,19 +3917,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="F128" s="18">
-        <v>68016</v>
+        <v>57544</v>
       </c>
       <c r="G128" s="18">
-        <v>8140000</v>
+        <v>1438600</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3937,13 +3940,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="F129" s="18">
         <v>57544</v>
@@ -3960,19 +3963,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="F130" s="18">
-        <v>68016</v>
+        <v>57544</v>
       </c>
       <c r="G130" s="18">
-        <v>8140000</v>
+        <v>1438600</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3983,13 +3986,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F131" s="18">
         <v>57544</v>
@@ -4006,19 +4009,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="F132" s="18">
-        <v>367880</v>
+        <v>57544</v>
       </c>
       <c r="G132" s="18">
-        <v>9197000</v>
+        <v>1438600</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -4029,19 +4032,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="F133" s="18">
-        <v>68016</v>
+        <v>57544</v>
       </c>
       <c r="G133" s="18">
-        <v>8140000</v>
+        <v>1438600</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -4052,13 +4055,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F134" s="18">
         <v>57544</v>
@@ -4075,19 +4078,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="F135" s="18">
-        <v>367880</v>
+        <v>57544</v>
       </c>
       <c r="G135" s="18">
-        <v>9197000</v>
+        <v>1438600</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4098,13 +4101,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="F136" s="18">
         <v>57544</v>
@@ -4121,19 +4124,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="F137" s="18">
-        <v>367880</v>
+        <v>57544</v>
       </c>
       <c r="G137" s="18">
-        <v>9197000</v>
+        <v>1438600</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4144,19 +4147,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="F138" s="18">
-        <v>68016</v>
+        <v>57544</v>
       </c>
       <c r="G138" s="18">
-        <v>8140000</v>
+        <v>1438600</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4167,19 +4170,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="F139" s="18">
-        <v>68016</v>
+        <v>57544</v>
       </c>
       <c r="G139" s="18">
-        <v>8140000</v>
+        <v>1438600</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4190,13 +4193,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="F140" s="18">
         <v>57544</v>
@@ -4213,19 +4216,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="F141" s="18">
-        <v>367880</v>
+        <v>57544</v>
       </c>
       <c r="G141" s="18">
-        <v>9197000</v>
+        <v>1438600</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4236,19 +4239,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="F142" s="18">
-        <v>367880</v>
+        <v>57544</v>
       </c>
       <c r="G142" s="18">
-        <v>9197000</v>
+        <v>1438600</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4259,19 +4262,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="F143" s="18">
-        <v>68016</v>
+        <v>57544</v>
       </c>
       <c r="G143" s="18">
-        <v>8140000</v>
+        <v>1438600</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4282,13 +4285,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="F144" s="18">
         <v>57544</v>
@@ -4305,13 +4308,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F145" s="18">
         <v>57544</v>
@@ -4328,19 +4331,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="F146" s="18">
-        <v>68016</v>
+        <v>57544</v>
       </c>
       <c r="G146" s="18">
-        <v>8140000</v>
+        <v>1438600</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4351,19 +4354,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F147" s="18">
-        <v>367880</v>
+        <v>57544</v>
       </c>
       <c r="G147" s="18">
-        <v>9197000</v>
+        <v>1438600</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4374,19 +4377,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="F148" s="18">
-        <v>68016</v>
+        <v>57544</v>
       </c>
       <c r="G148" s="18">
-        <v>8140000</v>
+        <v>1438600</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4397,13 +4400,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="F149" s="18">
         <v>57544</v>
@@ -4420,19 +4423,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="F150" s="18">
-        <v>367880</v>
+        <v>57544</v>
       </c>
       <c r="G150" s="18">
-        <v>9197000</v>
+        <v>1438600</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4443,19 +4446,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F151" s="18">
-        <v>68016</v>
+        <v>57544</v>
       </c>
       <c r="G151" s="18">
-        <v>8140000</v>
+        <v>1438600</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4466,19 +4469,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="F152" s="18">
-        <v>367880</v>
+        <v>57544</v>
       </c>
       <c r="G152" s="18">
-        <v>9197000</v>
+        <v>1438600</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4489,13 +4492,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="F153" s="18">
         <v>57544</v>
@@ -4512,19 +4515,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="F154" s="18">
-        <v>367880</v>
+        <v>57544</v>
       </c>
       <c r="G154" s="18">
-        <v>9197000</v>
+        <v>1438600</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4535,19 +4538,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F155" s="18">
-        <v>68016</v>
+        <v>57544</v>
       </c>
       <c r="G155" s="18">
-        <v>8140000</v>
+        <v>1438600</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4558,13 +4561,13 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F156" s="18">
         <v>57544</v>
@@ -4581,13 +4584,13 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F157" s="18">
         <v>57544</v>
@@ -4604,19 +4607,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="F158" s="18">
-        <v>68016</v>
+        <v>57544</v>
       </c>
       <c r="G158" s="18">
-        <v>8140000</v>
+        <v>1438600</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4627,19 +4630,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="F159" s="18">
-        <v>367880</v>
+        <v>57544</v>
       </c>
       <c r="G159" s="18">
-        <v>9197000</v>
+        <v>1438600</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4650,19 +4653,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F160" s="18">
-        <v>367880</v>
+        <v>57544</v>
       </c>
       <c r="G160" s="18">
-        <v>9197000</v>
+        <v>1438600</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4673,19 +4676,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F161" s="18">
-        <v>68016</v>
+        <v>57544</v>
       </c>
       <c r="G161" s="18">
-        <v>8140000</v>
+        <v>1438600</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4696,13 +4699,13 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F162" s="18">
         <v>57544</v>
@@ -4719,19 +4722,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="F163" s="18">
-        <v>367880</v>
+        <v>57544</v>
       </c>
       <c r="G163" s="18">
-        <v>9197000</v>
+        <v>1438600</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4742,13 +4745,13 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F164" s="18">
         <v>57544</v>
@@ -4765,19 +4768,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F165" s="18">
-        <v>68016</v>
+        <v>57544</v>
       </c>
       <c r="G165" s="18">
-        <v>8140000</v>
+        <v>1438600</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4788,13 +4791,13 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F166" s="18">
         <v>57544</v>
@@ -4811,19 +4814,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F167" s="18">
-        <v>367880</v>
+        <v>57544</v>
       </c>
       <c r="G167" s="18">
-        <v>9197000</v>
+        <v>1438600</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4834,19 +4837,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F168" s="18">
-        <v>68016</v>
+        <v>57544</v>
       </c>
       <c r="G168" s="18">
-        <v>8140000</v>
+        <v>1438600</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4857,13 +4860,13 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F169" s="18">
         <v>57544</v>
@@ -4880,19 +4883,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F170" s="18">
-        <v>68016</v>
+        <v>57544</v>
       </c>
       <c r="G170" s="18">
-        <v>8140000</v>
+        <v>1438600</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -4903,19 +4906,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F171" s="18">
-        <v>367880</v>
+        <v>57544</v>
       </c>
       <c r="G171" s="18">
-        <v>9197000</v>
+        <v>1438600</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4926,13 +4929,13 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F172" s="18">
         <v>57544</v>
@@ -4949,19 +4952,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F173" s="18">
-        <v>68016</v>
+        <v>57544</v>
       </c>
       <c r="G173" s="18">
-        <v>8140000</v>
+        <v>1438600</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -4972,19 +4975,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F174" s="18">
-        <v>367880</v>
+        <v>57544</v>
       </c>
       <c r="G174" s="18">
-        <v>9197000</v>
+        <v>1438600</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -4995,19 +4998,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F175" s="18">
-        <v>367880</v>
+        <v>57544</v>
       </c>
       <c r="G175" s="18">
-        <v>9197000</v>
+        <v>1438600</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -5018,13 +5021,13 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F176" s="18">
         <v>57544</v>
@@ -5041,19 +5044,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F177" s="18">
-        <v>68016</v>
+        <v>57544</v>
       </c>
       <c r="G177" s="18">
-        <v>8140000</v>
+        <v>1438600</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -5064,19 +5067,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F178" s="18">
-        <v>367880</v>
+        <v>57544</v>
       </c>
       <c r="G178" s="18">
-        <v>9197000</v>
+        <v>1438600</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -5087,19 +5090,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F179" s="18">
-        <v>68016</v>
+        <v>57544</v>
       </c>
       <c r="G179" s="18">
-        <v>8140000</v>
+        <v>1438600</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -5110,13 +5113,13 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F180" s="18">
         <v>57544</v>
@@ -5133,13 +5136,13 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F181" s="18">
         <v>57544</v>
@@ -5156,19 +5159,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F182" s="18">
-        <v>68016</v>
+        <v>57544</v>
       </c>
       <c r="G182" s="18">
-        <v>8140000</v>
+        <v>1438600</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -5179,19 +5182,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F183" s="18">
-        <v>367880</v>
+        <v>57544</v>
       </c>
       <c r="G183" s="18">
-        <v>9197000</v>
+        <v>1438600</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5202,13 +5205,13 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F184" s="18">
         <v>57544</v>
@@ -5225,19 +5228,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E185" s="16" t="s">
         <v>71</v>
       </c>
       <c r="F185" s="18">
-        <v>367880</v>
+        <v>57544</v>
       </c>
       <c r="G185" s="18">
-        <v>9197000</v>
+        <v>1438600</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5248,19 +5251,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F186" s="18">
-        <v>68016</v>
+        <v>57544</v>
       </c>
       <c r="G186" s="18">
-        <v>8140000</v>
+        <v>1438600</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5271,19 +5274,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F187" s="18">
-        <v>68016</v>
+        <v>57544</v>
       </c>
       <c r="G187" s="18">
-        <v>8140000</v>
+        <v>1438600</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5294,13 +5297,13 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F188" s="18">
         <v>57544</v>
@@ -5317,19 +5320,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F189" s="18">
-        <v>367880</v>
+        <v>57544</v>
       </c>
       <c r="G189" s="18">
-        <v>9197000</v>
+        <v>1438600</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5340,13 +5343,13 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F190" s="18">
         <v>57544</v>
@@ -5363,19 +5366,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F191" s="18">
-        <v>367880</v>
+        <v>57544</v>
       </c>
       <c r="G191" s="18">
-        <v>9197000</v>
+        <v>1438600</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5386,19 +5389,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F192" s="18">
-        <v>68016</v>
+        <v>57544</v>
       </c>
       <c r="G192" s="18">
-        <v>8140000</v>
+        <v>1438600</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5409,19 +5412,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F193" s="18">
-        <v>68016</v>
+        <v>57544</v>
       </c>
       <c r="G193" s="18">
-        <v>8140000</v>
+        <v>1438600</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5432,19 +5435,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F194" s="18">
-        <v>367880</v>
+        <v>57544</v>
       </c>
       <c r="G194" s="18">
-        <v>9197000</v>
+        <v>1438600</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5455,13 +5458,13 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F195" s="18">
         <v>57544</v>
@@ -5478,13 +5481,13 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F196" s="18">
         <v>57544</v>
@@ -5501,19 +5504,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F197" s="18">
-        <v>68016</v>
+        <v>57544</v>
       </c>
       <c r="G197" s="18">
-        <v>8140000</v>
+        <v>1438600</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5524,19 +5527,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F198" s="18">
-        <v>367880</v>
+        <v>57544</v>
       </c>
       <c r="G198" s="18">
-        <v>9197000</v>
+        <v>1438600</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5547,13 +5550,13 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F199" s="18">
         <v>57544</v>
@@ -5570,19 +5573,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F200" s="18">
-        <v>68016</v>
+        <v>57544</v>
       </c>
       <c r="G200" s="18">
-        <v>8140000</v>
+        <v>1438600</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5593,19 +5596,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F201" s="18">
-        <v>367880</v>
+        <v>57544</v>
       </c>
       <c r="G201" s="18">
-        <v>9197000</v>
+        <v>1438600</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5616,19 +5619,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F202" s="18">
-        <v>367880</v>
+        <v>57544</v>
       </c>
       <c r="G202" s="18">
-        <v>9197000</v>
+        <v>1438600</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -5639,13 +5642,13 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F203" s="18">
         <v>57544</v>
@@ -5662,19 +5665,19 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F204" s="18">
-        <v>68016</v>
+        <v>57544</v>
       </c>
       <c r="G204" s="18">
-        <v>8140000</v>
+        <v>1438600</v>
       </c>
       <c r="H204" s="19"/>
       <c r="I204" s="19"/>
@@ -5685,13 +5688,13 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="F205" s="18">
         <v>57544</v>
@@ -5708,19 +5711,19 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F206" s="18">
-        <v>367880</v>
+        <v>57544</v>
       </c>
       <c r="G206" s="18">
-        <v>9197000</v>
+        <v>1438600</v>
       </c>
       <c r="H206" s="19"/>
       <c r="I206" s="19"/>
@@ -5731,19 +5734,19 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="F207" s="18">
-        <v>68016</v>
+        <v>57544</v>
       </c>
       <c r="G207" s="18">
-        <v>8140000</v>
+        <v>1438600</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
@@ -5754,19 +5757,19 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F208" s="18">
-        <v>68016</v>
+        <v>57544</v>
       </c>
       <c r="G208" s="18">
-        <v>8140000</v>
+        <v>1438600</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
@@ -5777,19 +5780,19 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="F209" s="18">
-        <v>367880</v>
+        <v>57544</v>
       </c>
       <c r="G209" s="18">
-        <v>9197000</v>
+        <v>1438600</v>
       </c>
       <c r="H209" s="19"/>
       <c r="I209" s="19"/>
@@ -5800,13 +5803,13 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="F210" s="18">
         <v>57544</v>
@@ -5823,19 +5826,19 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="F211" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G211" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H211" s="19"/>
       <c r="I211" s="19"/>
@@ -5846,19 +5849,19 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F212" s="18">
-        <v>68016</v>
+        <v>367880</v>
       </c>
       <c r="G212" s="18">
-        <v>8140000</v>
+        <v>9197000</v>
       </c>
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
@@ -5869,13 +5872,13 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="F213" s="18">
         <v>367880</v>
@@ -5892,19 +5895,19 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="F214" s="18">
-        <v>68016</v>
+        <v>367880</v>
       </c>
       <c r="G214" s="18">
-        <v>8140000</v>
+        <v>9197000</v>
       </c>
       <c r="H214" s="19"/>
       <c r="I214" s="19"/>
@@ -5915,13 +5918,13 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="F215" s="18">
         <v>367880</v>
@@ -5938,19 +5941,19 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="F216" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G216" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H216" s="19"/>
       <c r="I216" s="19"/>
@@ -5961,13 +5964,13 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="F217" s="18">
         <v>367880</v>
@@ -5984,19 +5987,19 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="F218" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G218" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H218" s="19"/>
       <c r="I218" s="19"/>
@@ -6007,19 +6010,19 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="F219" s="18">
-        <v>68016</v>
+        <v>367880</v>
       </c>
       <c r="G219" s="18">
-        <v>8140000</v>
+        <v>9197000</v>
       </c>
       <c r="H219" s="19"/>
       <c r="I219" s="19"/>
@@ -6030,13 +6033,13 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="F220" s="18">
         <v>367880</v>
@@ -6053,19 +6056,19 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="F221" s="18">
-        <v>68016</v>
+        <v>367880</v>
       </c>
       <c r="G221" s="18">
-        <v>8140000</v>
+        <v>9197000</v>
       </c>
       <c r="H221" s="19"/>
       <c r="I221" s="19"/>
@@ -6076,19 +6079,19 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="F222" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G222" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H222" s="19"/>
       <c r="I222" s="19"/>
@@ -6099,19 +6102,19 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="F223" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G223" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H223" s="19"/>
       <c r="I223" s="19"/>
@@ -6122,13 +6125,13 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="F224" s="18">
         <v>367880</v>
@@ -6145,19 +6148,19 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F225" s="18">
-        <v>68016</v>
+        <v>367880</v>
       </c>
       <c r="G225" s="18">
-        <v>8140000</v>
+        <v>9197000</v>
       </c>
       <c r="H225" s="19"/>
       <c r="I225" s="19"/>
@@ -6168,19 +6171,19 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="F226" s="18">
-        <v>68016</v>
+        <v>367880</v>
       </c>
       <c r="G226" s="18">
-        <v>8140000</v>
+        <v>9197000</v>
       </c>
       <c r="H226" s="19"/>
       <c r="I226" s="19"/>
@@ -6191,13 +6194,13 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="F227" s="18">
         <v>367880</v>
@@ -6214,19 +6217,19 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="F228" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G228" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H228" s="19"/>
       <c r="I228" s="19"/>
@@ -6237,19 +6240,19 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="F229" s="18">
-        <v>68016</v>
+        <v>367880</v>
       </c>
       <c r="G229" s="18">
-        <v>8140000</v>
+        <v>9197000</v>
       </c>
       <c r="H229" s="19"/>
       <c r="I229" s="19"/>
@@ -6260,19 +6263,19 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="F230" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G230" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H230" s="19"/>
       <c r="I230" s="19"/>
@@ -6283,13 +6286,13 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="F231" s="18">
         <v>367880</v>
@@ -6306,19 +6309,19 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="F232" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G232" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H232" s="19"/>
       <c r="I232" s="19"/>
@@ -6329,19 +6332,19 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="F233" s="18">
-        <v>68016</v>
+        <v>367880</v>
       </c>
       <c r="G233" s="18">
-        <v>8140000</v>
+        <v>9197000</v>
       </c>
       <c r="H233" s="19"/>
       <c r="I233" s="19"/>
@@ -6352,13 +6355,13 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="F234" s="18">
         <v>367880</v>
@@ -6375,13 +6378,13 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="F235" s="18">
         <v>367880</v>
@@ -6398,19 +6401,19 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="D236" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E236" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E236" s="16" t="s">
-        <v>88</v>
-      </c>
       <c r="F236" s="18">
-        <v>68016</v>
+        <v>367880</v>
       </c>
       <c r="G236" s="18">
-        <v>8140000</v>
+        <v>9197000</v>
       </c>
       <c r="H236" s="19"/>
       <c r="I236" s="19"/>
@@ -6421,19 +6424,19 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="F237" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G237" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H237" s="19"/>
       <c r="I237" s="19"/>
@@ -6444,13 +6447,13 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D238" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E238" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="E238" s="16" t="s">
-        <v>89</v>
       </c>
       <c r="F238" s="18">
         <v>367880</v>
@@ -6467,19 +6470,19 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="F239" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G239" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H239" s="19"/>
       <c r="I239" s="19"/>
@@ -6490,19 +6493,19 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="F240" s="18">
-        <v>68016</v>
+        <v>367880</v>
       </c>
       <c r="G240" s="18">
-        <v>8140000</v>
+        <v>9197000</v>
       </c>
       <c r="H240" s="19"/>
       <c r="I240" s="19"/>
@@ -6513,19 +6516,19 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="F241" s="18">
-        <v>68016</v>
+        <v>367880</v>
       </c>
       <c r="G241" s="18">
-        <v>8140000</v>
+        <v>9197000</v>
       </c>
       <c r="H241" s="19"/>
       <c r="I241" s="19"/>
@@ -6536,13 +6539,13 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="F242" s="18">
         <v>367880</v>
@@ -6559,19 +6562,19 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="F243" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G243" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H243" s="19"/>
       <c r="I243" s="19"/>
@@ -6582,13 +6585,13 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="F244" s="18">
         <v>367880</v>
@@ -6605,19 +6608,19 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="F245" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G245" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H245" s="19"/>
       <c r="I245" s="19"/>
@@ -6628,19 +6631,19 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="F246" s="18">
-        <v>68016</v>
+        <v>367880</v>
       </c>
       <c r="G246" s="18">
-        <v>8140000</v>
+        <v>9197000</v>
       </c>
       <c r="H246" s="19"/>
       <c r="I246" s="19"/>
@@ -6651,19 +6654,19 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="F247" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G247" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H247" s="19"/>
       <c r="I247" s="19"/>
@@ -6674,19 +6677,19 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="F248" s="18">
-        <v>68016</v>
+        <v>367880</v>
       </c>
       <c r="G248" s="18">
-        <v>8140000</v>
+        <v>9197000</v>
       </c>
       <c r="H248" s="19"/>
       <c r="I248" s="19"/>
@@ -6697,13 +6700,13 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="F249" s="18">
         <v>367880</v>
@@ -6720,19 +6723,19 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="F250" s="18">
-        <v>68016</v>
+        <v>367880</v>
       </c>
       <c r="G250" s="18">
-        <v>8140000</v>
+        <v>9197000</v>
       </c>
       <c r="H250" s="19"/>
       <c r="I250" s="19"/>
@@ -6743,19 +6746,19 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="F251" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G251" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H251" s="19"/>
       <c r="I251" s="19"/>
@@ -6766,13 +6769,13 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="F252" s="18">
         <v>367880</v>
@@ -6789,13 +6792,13 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="F253" s="18">
         <v>367880</v>
@@ -6812,19 +6815,19 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="F254" s="18">
-        <v>68016</v>
+        <v>367880</v>
       </c>
       <c r="G254" s="18">
-        <v>8140000</v>
+        <v>9197000</v>
       </c>
       <c r="H254" s="19"/>
       <c r="I254" s="19"/>
@@ -6835,19 +6838,19 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="F255" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G255" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H255" s="19"/>
       <c r="I255" s="19"/>
@@ -6858,13 +6861,13 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="F256" s="18">
         <v>367880</v>
@@ -6881,19 +6884,19 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="F257" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G257" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H257" s="19"/>
       <c r="I257" s="19"/>
@@ -6904,19 +6907,19 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="F258" s="18">
-        <v>68016</v>
+        <v>367880</v>
       </c>
       <c r="G258" s="18">
-        <v>8140000</v>
+        <v>9197000</v>
       </c>
       <c r="H258" s="19"/>
       <c r="I258" s="19"/>
@@ -6927,19 +6930,19 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="F259" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G259" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H259" s="19"/>
       <c r="I259" s="19"/>
@@ -6950,19 +6953,19 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="F260" s="18">
-        <v>68016</v>
+        <v>367880</v>
       </c>
       <c r="G260" s="18">
-        <v>8140000</v>
+        <v>9197000</v>
       </c>
       <c r="H260" s="19"/>
       <c r="I260" s="19"/>
@@ -6973,13 +6976,13 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="F261" s="18">
         <v>367880</v>
@@ -6996,13 +6999,13 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="F262" s="18">
         <v>367880</v>
@@ -7019,19 +7022,19 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="F263" s="18">
-        <v>68016</v>
+        <v>367880</v>
       </c>
       <c r="G263" s="18">
-        <v>8140000</v>
+        <v>9197000</v>
       </c>
       <c r="H263" s="19"/>
       <c r="I263" s="19"/>
@@ -7042,19 +7045,19 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="F264" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G264" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H264" s="19"/>
       <c r="I264" s="19"/>
@@ -7065,19 +7068,19 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="F265" s="18">
-        <v>68016</v>
+        <v>367880</v>
       </c>
       <c r="G265" s="18">
-        <v>8140000</v>
+        <v>9197000</v>
       </c>
       <c r="H265" s="19"/>
       <c r="I265" s="19"/>
@@ -7088,19 +7091,19 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="F266" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G266" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H266" s="19"/>
       <c r="I266" s="19"/>
@@ -7111,13 +7114,13 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="F267" s="18">
         <v>367880</v>
@@ -7134,19 +7137,19 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="F268" s="18">
-        <v>68016</v>
+        <v>367880</v>
       </c>
       <c r="G268" s="18">
-        <v>8140000</v>
+        <v>9197000</v>
       </c>
       <c r="H268" s="19"/>
       <c r="I268" s="19"/>
@@ -7157,13 +7160,13 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="F269" s="18">
         <v>367880</v>
@@ -7180,19 +7183,19 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="F270" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G270" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H270" s="19"/>
       <c r="I270" s="19"/>
@@ -7203,13 +7206,13 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="F271" s="18">
         <v>367880</v>
@@ -7226,19 +7229,19 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="F272" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G272" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H272" s="19"/>
       <c r="I272" s="19"/>
@@ -7249,13 +7252,13 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="F273" s="18">
         <v>367880</v>
@@ -7272,19 +7275,19 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="F274" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G274" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H274" s="19"/>
       <c r="I274" s="19"/>
@@ -7295,19 +7298,19 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="F275" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G275" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H275" s="19"/>
       <c r="I275" s="19"/>
@@ -7318,13 +7321,13 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="F276" s="18">
         <v>367880</v>
@@ -7341,19 +7344,19 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="F277" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G277" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H277" s="19"/>
       <c r="I277" s="19"/>
@@ -7364,13 +7367,13 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="F278" s="18">
         <v>367880</v>
@@ -7387,13 +7390,13 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="F279" s="18">
         <v>367880</v>
@@ -7410,19 +7413,19 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="F280" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G280" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H280" s="19"/>
       <c r="I280" s="19"/>
@@ -7433,19 +7436,19 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="F281" s="18">
-        <v>296000</v>
+        <v>367880</v>
       </c>
       <c r="G281" s="18">
-        <v>8140000</v>
+        <v>9197000</v>
       </c>
       <c r="H281" s="19"/>
       <c r="I281" s="19"/>
@@ -7456,13 +7459,13 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="F282" s="18">
         <v>367880</v>
@@ -7479,19 +7482,19 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="F283" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G283" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H283" s="19"/>
       <c r="I283" s="19"/>
@@ -7502,19 +7505,19 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="F284" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G284" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H284" s="19"/>
       <c r="I284" s="19"/>
@@ -7525,13 +7528,13 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="F285" s="18">
         <v>367880</v>
@@ -7548,13 +7551,13 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="F286" s="18">
         <v>367880</v>
@@ -7571,19 +7574,19 @@
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="F287" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G287" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H287" s="19"/>
       <c r="I287" s="19"/>
@@ -7594,19 +7597,19 @@
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="F288" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G288" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H288" s="19"/>
       <c r="I288" s="19"/>
@@ -7617,13 +7620,13 @@
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="F289" s="18">
         <v>367880</v>
@@ -7640,19 +7643,19 @@
         <v>8</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="F290" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G290" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H290" s="19"/>
       <c r="I290" s="19"/>
@@ -7663,13 +7666,13 @@
         <v>8</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="F291" s="18">
         <v>367880</v>
@@ -7686,19 +7689,19 @@
         <v>8</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="F292" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G292" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H292" s="19"/>
       <c r="I292" s="19"/>
@@ -7709,13 +7712,13 @@
         <v>8</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="F293" s="18">
         <v>367880</v>
@@ -7732,19 +7735,19 @@
         <v>8</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="F294" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G294" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H294" s="19"/>
       <c r="I294" s="19"/>
@@ -7755,13 +7758,13 @@
         <v>8</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="F295" s="18">
         <v>367880</v>
@@ -7778,13 +7781,13 @@
         <v>8</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="F296" s="18">
         <v>367880</v>
@@ -7801,19 +7804,19 @@
         <v>8</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="F297" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G297" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H297" s="19"/>
       <c r="I297" s="19"/>
@@ -7824,13 +7827,13 @@
         <v>8</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="F298" s="18">
         <v>367880</v>
@@ -7847,19 +7850,19 @@
         <v>8</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="F299" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G299" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H299" s="19"/>
       <c r="I299" s="19"/>
@@ -7870,13 +7873,13 @@
         <v>8</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="F300" s="18">
         <v>367880</v>
@@ -7893,19 +7896,19 @@
         <v>8</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="F301" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G301" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H301" s="19"/>
       <c r="I301" s="19"/>
@@ -7916,13 +7919,13 @@
         <v>8</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="F302" s="18">
         <v>367880</v>
@@ -7939,19 +7942,19 @@
         <v>8</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="F303" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G303" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H303" s="19"/>
       <c r="I303" s="19"/>
@@ -7962,13 +7965,13 @@
         <v>8</v>
       </c>
       <c r="C304" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="F304" s="18">
         <v>367880</v>
@@ -7985,19 +7988,19 @@
         <v>8</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="F305" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G305" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H305" s="19"/>
       <c r="I305" s="19"/>
@@ -8008,19 +8011,19 @@
         <v>8</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E306" s="16" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="F306" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G306" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H306" s="19"/>
       <c r="I306" s="19"/>
@@ -8031,13 +8034,13 @@
         <v>8</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="F307" s="18">
         <v>367880</v>
@@ -8054,13 +8057,13 @@
         <v>8</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="F308" s="18">
         <v>367880</v>
@@ -8077,19 +8080,19 @@
         <v>8</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="F309" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G309" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H309" s="19"/>
       <c r="I309" s="19"/>
@@ -8100,13 +8103,13 @@
         <v>8</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="F310" s="18">
         <v>367880</v>
@@ -8123,19 +8126,19 @@
         <v>8</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="F311" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G311" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H311" s="19"/>
       <c r="I311" s="19"/>
@@ -8146,19 +8149,19 @@
         <v>8</v>
       </c>
       <c r="C312" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="F312" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G312" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H312" s="19"/>
       <c r="I312" s="19"/>
@@ -8169,13 +8172,13 @@
         <v>8</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E313" s="16" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F313" s="18">
         <v>367880</v>
@@ -8192,13 +8195,13 @@
         <v>8</v>
       </c>
       <c r="C314" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="F314" s="18">
         <v>367880</v>
@@ -8215,19 +8218,19 @@
         <v>8</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="F315" s="18">
-        <v>57544</v>
+        <v>367880</v>
       </c>
       <c r="G315" s="18">
-        <v>1438600</v>
+        <v>9197000</v>
       </c>
       <c r="H315" s="19"/>
       <c r="I315" s="19"/>
@@ -8238,13 +8241,13 @@
         <v>8</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="F316" s="18">
         <v>367880</v>
@@ -8257,56 +8260,102 @@
       <c r="J316" s="20"/>
     </row>
     <row r="317" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B317" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C317" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D317" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E317" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F317" s="24">
-        <v>57544</v>
-      </c>
-      <c r="G317" s="24">
-        <v>1438600</v>
-      </c>
-      <c r="H317" s="25"/>
-      <c r="I317" s="25"/>
-      <c r="J317" s="26"/>
-    </row>
-    <row r="322" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B322" s="32" t="s">
+      <c r="B317" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C317" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D317" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E317" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F317" s="18">
+        <v>367880</v>
+      </c>
+      <c r="G317" s="18">
+        <v>9197000</v>
+      </c>
+      <c r="H317" s="19"/>
+      <c r="I317" s="19"/>
+      <c r="J317" s="20"/>
+    </row>
+    <row r="318" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B318" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C318" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D318" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E318" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F318" s="18">
+        <v>367880</v>
+      </c>
+      <c r="G318" s="18">
+        <v>9197000</v>
+      </c>
+      <c r="H318" s="19"/>
+      <c r="I318" s="19"/>
+      <c r="J318" s="20"/>
+    </row>
+    <row r="319" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B319" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C319" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D319" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E319" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F319" s="24">
+        <v>367880</v>
+      </c>
+      <c r="G319" s="24">
+        <v>9197000</v>
+      </c>
+      <c r="H319" s="25"/>
+      <c r="I319" s="25"/>
+      <c r="J319" s="26"/>
+    </row>
+    <row r="324" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B324" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C324" s="32"/>
+      <c r="H324" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I324" s="1"/>
+      <c r="J324" s="1"/>
+    </row>
+    <row r="325" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B325" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="C322" s="32"/>
-      <c r="H322" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I322" s="1"/>
-      <c r="J322" s="1"/>
-    </row>
-    <row r="323" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B323" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="C323" s="32"/>
-      <c r="H323" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I323" s="1"/>
-      <c r="J323" s="1"/>
+      <c r="C325" s="32"/>
+      <c r="H325" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I325" s="1"/>
+      <c r="J325" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B323:C323"/>
-    <mergeCell ref="B322:C322"/>
-    <mergeCell ref="H323:J323"/>
-    <mergeCell ref="H322:J322"/>
+    <mergeCell ref="B325:C325"/>
+    <mergeCell ref="B324:C324"/>
+    <mergeCell ref="H325:J325"/>
+    <mergeCell ref="H324:J324"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
